--- a/capiq_data/in_process_data/IQ4222231.xlsx
+++ b/capiq_data/in_process_data/IQ4222231.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9622AE-182D-4867-8661-88709EE44241}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94E183-6616-4CC0-8F7E-930047E79E24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"64152977-1993-4fbd-979a-69d94d83e8d3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"fb5b6f71-f962-46c0-9ef9-efaf378fe69e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$56</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$56</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$56</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$56</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$56</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$56</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$56</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$56</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$56</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$56</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$56</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$56</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$56</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$56</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$56</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$56</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$56</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$56</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$56</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$56</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$56</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$56</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$56</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$56</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$56</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$56</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,48 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +775,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>39172</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-233</v>
+        <v>118.935</v>
       </c>
       <c r="D2">
-        <v>1428</v>
+        <v>384.74799999999999</v>
       </c>
       <c r="E2">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>551</v>
+        <v>300.101</v>
       </c>
       <c r="G2">
-        <v>5432</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>13447</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +814,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2960</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3244</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>689</v>
+        <v>-54.268000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>39172</v>
       </c>
       <c r="S2">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>10203</v>
+        <v>346.44200000000001</v>
       </c>
       <c r="U2">
-        <v>2812</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>993</v>
+        <v>203.273</v>
       </c>
       <c r="W2">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-318</v>
+        <v>-225.85599999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-233</v>
+        <v>118.935</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>39355</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>503</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1449</v>
+        <v>326</v>
       </c>
       <c r="E3">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>997</v>
+        <v>249</v>
       </c>
       <c r="G3">
-        <v>4349</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>12377</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +897,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1891</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2140</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-154</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>39355</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>10237</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2658</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-337</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>503</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>39447</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>1146</v>
+        <v>453</v>
       </c>
       <c r="E4">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F4">
-        <v>803</v>
+        <v>277</v>
       </c>
       <c r="G4">
-        <v>3954</v>
+        <v>398</v>
       </c>
       <c r="H4">
-        <v>11972</v>
+        <v>879</v>
       </c>
       <c r="I4">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +980,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1246</v>
+        <v>528</v>
       </c>
       <c r="O4">
-        <v>1507</v>
+        <v>639</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>-324</v>
+        <v>22</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>39447</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>4438</v>
       </c>
       <c r="T4">
-        <v>10465</v>
+        <v>240</v>
       </c>
       <c r="U4">
-        <v>2334</v>
+        <v>62</v>
       </c>
       <c r="V4">
-        <v>-78</v>
+        <v>123</v>
       </c>
       <c r="W4">
-        <v>-192</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-326</v>
+        <v>-77</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>335</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39538</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>754</v>
+        <v>325</v>
       </c>
       <c r="E5">
-        <v>139</v>
+        <v>102.669</v>
       </c>
       <c r="F5">
-        <v>517</v>
+        <v>218</v>
       </c>
       <c r="G5">
-        <v>4082</v>
+        <v>342.553</v>
       </c>
       <c r="H5">
-        <v>12113</v>
+        <v>814.245</v>
       </c>
       <c r="I5">
-        <v>250</v>
+        <v>30.805</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1063,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1279</v>
+        <v>505.625</v>
       </c>
       <c r="O5">
-        <v>1542</v>
+        <v>588.70500000000004</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>135</v>
+        <v>-15</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39538</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>4438</v>
       </c>
       <c r="T5">
-        <v>10571</v>
+        <v>225.54</v>
       </c>
       <c r="U5">
-        <v>2469</v>
+        <v>47.353999999999999</v>
       </c>
       <c r="V5">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>5</v>
+        <v>-107</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>39629</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>1407</v>
+        <v>352</v>
       </c>
       <c r="E6">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>668</v>
+        <v>246</v>
       </c>
       <c r="G6">
-        <v>5380</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13277</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1146,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2556</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2785</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>696</v>
+        <v>12</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>39629</v>
       </c>
       <c r="S6">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>10492</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3165</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>850</v>
+        <v>94</v>
       </c>
       <c r="W6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-150</v>
+        <v>-65</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39721</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>384</v>
+        <v>-107</v>
       </c>
       <c r="D7">
-        <v>1172</v>
+        <v>711</v>
       </c>
       <c r="E7">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="F7">
-        <v>810</v>
+        <v>303</v>
       </c>
       <c r="G7">
-        <v>4566</v>
+        <v>4201</v>
       </c>
       <c r="H7">
-        <v>12482</v>
+        <v>13741</v>
       </c>
       <c r="I7">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1229,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1774</v>
+        <v>1101</v>
       </c>
       <c r="O7">
-        <v>1996</v>
+        <v>1966</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-116</v>
+        <v>2783</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39721</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10486</v>
+        <v>11775</v>
       </c>
       <c r="U7">
-        <v>3049</v>
+        <v>2842</v>
       </c>
       <c r="V7">
-        <v>153</v>
+        <v>-65</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-246</v>
+        <v>1779</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>384</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>39813</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>185</v>
+        <v>-71</v>
       </c>
       <c r="D8">
-        <v>1075</v>
+        <v>1639</v>
       </c>
       <c r="E8">
-        <v>227</v>
+        <v>974</v>
       </c>
       <c r="F8">
-        <v>698</v>
+        <v>406</v>
       </c>
       <c r="G8">
-        <v>4332</v>
+        <v>5259</v>
       </c>
       <c r="H8">
-        <v>12269</v>
+        <v>14465</v>
       </c>
       <c r="I8">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1312,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1484</v>
+        <v>2084</v>
       </c>
       <c r="O8">
-        <v>1705</v>
+        <v>2938</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>-263</v>
+        <v>116</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>39813</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="T8">
-        <v>10564</v>
+        <v>11527</v>
       </c>
       <c r="U8">
-        <v>2786</v>
+        <v>2958</v>
       </c>
       <c r="V8">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="W8">
-        <v>-201</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-250</v>
+        <v>-119</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>185</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>39903</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="D9">
-        <v>841</v>
+        <v>981</v>
       </c>
       <c r="E9">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F9">
-        <v>604</v>
+        <v>497</v>
       </c>
       <c r="G9">
-        <v>4702</v>
+        <v>4510</v>
       </c>
       <c r="H9">
-        <v>12661</v>
+        <v>13651</v>
       </c>
       <c r="I9">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1395,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1555</v>
+        <v>1314</v>
       </c>
       <c r="O9">
-        <v>1778</v>
+        <v>2203</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>39903</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>10883</v>
+        <v>11448</v>
       </c>
       <c r="U9">
-        <v>2909</v>
+        <v>2988</v>
       </c>
       <c r="V9">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>6</v>
+        <v>-289</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="AA9">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>39994</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="D10">
-        <v>1768</v>
+        <v>1038</v>
       </c>
       <c r="E10">
-        <v>707</v>
+        <v>282</v>
       </c>
       <c r="F10">
-        <v>1084</v>
+        <v>566</v>
       </c>
       <c r="G10">
-        <v>6274</v>
+        <v>4510</v>
       </c>
       <c r="H10">
-        <v>14200</v>
+        <v>13519</v>
       </c>
       <c r="I10">
-        <v>343</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1478,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2652</v>
+        <v>1091</v>
       </c>
       <c r="O10">
-        <v>2883</v>
+        <v>1988</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1050</v>
+        <v>-260</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>39994</v>
       </c>
       <c r="S10">
-        <v>6590</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>11317</v>
+        <v>11531</v>
       </c>
       <c r="U10">
-        <v>3959</v>
+        <v>2728</v>
       </c>
       <c r="V10">
-        <v>976</v>
+        <v>-118</v>
       </c>
       <c r="W10">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-7</v>
+        <v>-152</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>354</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40086</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>456</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>1324</v>
+        <v>703</v>
       </c>
       <c r="E11">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F11">
-        <v>934</v>
+        <v>364</v>
       </c>
       <c r="G11">
-        <v>5803</v>
+        <v>4508</v>
       </c>
       <c r="H11">
-        <v>13725</v>
+        <v>13452</v>
       </c>
       <c r="I11">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1561,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1899</v>
+        <v>1285</v>
       </c>
       <c r="O11">
-        <v>2190</v>
+        <v>2160</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>340</v>
+        <v>-368</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40086</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>11535</v>
+        <v>11292</v>
       </c>
       <c r="U11">
-        <v>4299</v>
+        <v>2360</v>
       </c>
       <c r="V11">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>23</v>
+        <v>-262</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>87</v>
+        <v>-222</v>
       </c>
       <c r="AA11">
-        <v>456</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40178</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>324</v>
+        <v>-286</v>
       </c>
       <c r="D12">
-        <v>1050</v>
+        <v>1557</v>
       </c>
       <c r="E12">
-        <v>117</v>
+        <v>739</v>
       </c>
       <c r="F12">
-        <v>765</v>
+        <v>545</v>
       </c>
       <c r="G12">
-        <v>5629</v>
+        <v>5329</v>
       </c>
       <c r="H12">
-        <v>13411</v>
+        <v>13742</v>
       </c>
       <c r="I12">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,78 +1644,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1193</v>
+        <v>2507</v>
       </c>
       <c r="O12">
-        <v>1476</v>
+        <v>2986</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>42</v>
+        <v>408</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40178</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="T12">
-        <v>11935</v>
+        <v>10756</v>
       </c>
       <c r="U12">
-        <v>4341</v>
+        <v>2768</v>
       </c>
       <c r="V12">
-        <v>109</v>
+        <v>813</v>
       </c>
       <c r="W12">
-        <v>-212</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-199</v>
+        <v>-246</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>116</v>
+        <v>-162</v>
       </c>
       <c r="AA12">
-        <v>324</v>
+        <v>-286</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>40268</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="D13">
-        <v>691</v>
+        <v>1308</v>
       </c>
       <c r="E13">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="F13">
-        <v>516</v>
+        <v>775</v>
       </c>
       <c r="G13">
-        <v>8251</v>
+        <v>4486</v>
       </c>
       <c r="H13">
-        <v>16060</v>
+        <v>12866</v>
       </c>
       <c r="I13">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="J13">
-        <v>2211</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1727,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1433</v>
+        <v>1542</v>
       </c>
       <c r="O13">
-        <v>3921</v>
+        <v>1998</v>
       </c>
       <c r="P13">
-        <v>2211</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>103</v>
+        <v>-73</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>40268</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>12139</v>
+        <v>10868</v>
       </c>
       <c r="U13">
-        <v>4444</v>
+        <v>2695</v>
       </c>
       <c r="V13">
-        <v>-50</v>
+        <v>227</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>47</v>
+        <v>-87</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>126</v>
+        <v>-170</v>
       </c>
       <c r="AA13">
-        <v>56</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40359</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D14">
-        <v>1518</v>
+        <v>967</v>
       </c>
       <c r="E14">
-        <v>510</v>
+        <v>190</v>
       </c>
       <c r="F14">
-        <v>838</v>
+        <v>599</v>
       </c>
       <c r="G14">
-        <v>6241</v>
+        <v>3968</v>
       </c>
       <c r="H14">
-        <v>14012</v>
+        <v>12393</v>
       </c>
       <c r="I14">
-        <v>355</v>
+        <v>149</v>
       </c>
       <c r="J14">
-        <v>4668</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1810,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2405</v>
+        <v>1090</v>
       </c>
       <c r="O14">
-        <v>7390</v>
+        <v>1535</v>
       </c>
       <c r="P14">
-        <v>4693</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>-34</v>
+        <v>-481</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40359</v>
       </c>
       <c r="S14">
-        <v>6790</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>6622</v>
+        <v>10858</v>
       </c>
       <c r="U14">
-        <v>4410</v>
+        <v>2214</v>
       </c>
       <c r="V14">
-        <v>880</v>
+        <v>-26</v>
       </c>
       <c r="W14">
-        <v>-4</v>
+        <v>-187</v>
       </c>
       <c r="X14">
-        <v>-1094</v>
+        <v>-413</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>47</v>
+        <v>-30</v>
       </c>
       <c r="AA14">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>40451</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>1111</v>
+        <v>745</v>
       </c>
       <c r="E15">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="F15">
-        <v>769</v>
+        <v>396</v>
       </c>
       <c r="G15">
-        <v>5694</v>
+        <v>4148</v>
       </c>
       <c r="H15">
-        <v>13528</v>
+        <v>12570</v>
       </c>
       <c r="I15">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="J15">
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1890,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1893</v>
+        <v>1393</v>
       </c>
       <c r="O15">
-        <v>6604</v>
+        <v>1824</v>
       </c>
       <c r="P15">
-        <v>4320</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-131</v>
+        <v>-91</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>40451</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6924</v>
+        <v>10746</v>
       </c>
       <c r="U15">
-        <v>4279</v>
+        <v>2123</v>
       </c>
       <c r="V15">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-252</v>
+        <v>-235</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>21</v>
+        <v>-8</v>
       </c>
       <c r="AA15">
-        <v>293</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40543</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>204</v>
+        <v>-233</v>
       </c>
       <c r="D16">
-        <v>970</v>
+        <v>1428</v>
       </c>
       <c r="E16">
-        <v>107</v>
+        <v>673</v>
       </c>
       <c r="F16">
-        <v>670</v>
+        <v>551</v>
       </c>
       <c r="G16">
-        <v>5474</v>
+        <v>5432</v>
       </c>
       <c r="H16">
-        <v>13360</v>
+        <v>13447</v>
       </c>
       <c r="I16">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="J16">
-        <v>4321</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +1976,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1443</v>
+        <v>2960</v>
       </c>
       <c r="O16">
-        <v>6189</v>
+        <v>3244</v>
       </c>
       <c r="P16">
-        <v>4321</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-80</v>
+        <v>689</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40543</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="T16">
-        <v>7171</v>
+        <v>10203</v>
       </c>
       <c r="U16">
-        <v>4199</v>
+        <v>2812</v>
       </c>
       <c r="V16">
-        <v>106</v>
+        <v>993</v>
       </c>
       <c r="W16">
-        <v>-143</v>
+        <v>-187</v>
       </c>
       <c r="X16">
-        <v>-144</v>
+        <v>-318</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AA16">
-        <v>204</v>
+        <v>-233</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40633</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-23</v>
+        <v>503</v>
       </c>
       <c r="D17">
-        <v>753</v>
+        <v>1449</v>
       </c>
       <c r="E17">
-        <v>689</v>
+        <v>95</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>997</v>
       </c>
       <c r="G17">
-        <v>5957</v>
+        <v>4349</v>
       </c>
       <c r="H17">
-        <v>13855</v>
+        <v>12377</v>
       </c>
       <c r="I17">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="J17">
-        <v>4322</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2059,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2112</v>
+        <v>1891</v>
       </c>
       <c r="O17">
-        <v>6863</v>
+        <v>2140</v>
       </c>
       <c r="P17">
-        <v>4322</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-394</v>
+        <v>-154</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40633</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>6992</v>
+        <v>10237</v>
       </c>
       <c r="U17">
-        <v>3805</v>
+        <v>2658</v>
       </c>
       <c r="V17">
-        <v>-145</v>
+        <v>134</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>22</v>
+        <v>-337</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AA17">
-        <v>-23</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40724</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="D18">
-        <v>1575</v>
+        <v>1146</v>
       </c>
       <c r="E18">
-        <v>659</v>
+        <v>140</v>
       </c>
       <c r="F18">
-        <v>944</v>
+        <v>803</v>
       </c>
       <c r="G18">
-        <v>6541</v>
+        <v>3954</v>
       </c>
       <c r="H18">
-        <v>14642</v>
+        <v>11972</v>
       </c>
       <c r="I18">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="J18">
-        <v>4324</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2142,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2714</v>
+        <v>1246</v>
       </c>
       <c r="O18">
-        <v>7409</v>
+        <v>1507</v>
       </c>
       <c r="P18">
-        <v>4324</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1043</v>
+        <v>-324</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40724</v>
       </c>
       <c r="S18">
-        <v>6690</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>7233</v>
+        <v>10465</v>
       </c>
       <c r="U18">
-        <v>4848</v>
+        <v>2334</v>
       </c>
       <c r="V18">
-        <v>1195</v>
+        <v>-78</v>
       </c>
       <c r="W18">
-        <v>-4</v>
+        <v>-192</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-326</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AA18">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>40816</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>394</v>
+        <v>148</v>
       </c>
       <c r="D19">
-        <v>1278</v>
+        <v>754</v>
       </c>
       <c r="E19">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="F19">
-        <v>865</v>
+        <v>517</v>
       </c>
       <c r="G19">
-        <v>5863</v>
+        <v>4082</v>
       </c>
       <c r="H19">
-        <v>13777</v>
+        <v>12113</v>
       </c>
       <c r="I19">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="J19">
-        <v>4075</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2222,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1899</v>
+        <v>1279</v>
       </c>
       <c r="O19">
-        <v>6539</v>
+        <v>1542</v>
       </c>
       <c r="P19">
-        <v>4075</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>-383</v>
+        <v>135</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>40816</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7238</v>
+        <v>10571</v>
       </c>
       <c r="U19">
-        <v>4465</v>
+        <v>2469</v>
       </c>
       <c r="V19">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-212</v>
+        <v>5</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="AA19">
-        <v>394</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>40908</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="D20">
-        <v>1044</v>
+        <v>1407</v>
       </c>
       <c r="E20">
-        <v>201</v>
+        <v>649</v>
       </c>
       <c r="F20">
-        <v>747</v>
+        <v>668</v>
       </c>
       <c r="G20">
-        <v>6051</v>
+        <v>5380</v>
       </c>
       <c r="H20">
-        <v>14015</v>
+        <v>13277</v>
       </c>
       <c r="I20">
-        <v>198</v>
+        <v>390</v>
       </c>
       <c r="J20">
-        <v>4077</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2308,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1545</v>
+        <v>2556</v>
       </c>
       <c r="O20">
-        <v>6214</v>
+        <v>2785</v>
       </c>
       <c r="P20">
-        <v>4077</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-49</v>
+        <v>696</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>40908</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="T20">
-        <v>7801</v>
+        <v>10492</v>
       </c>
       <c r="U20">
-        <v>4416</v>
+        <v>3165</v>
       </c>
       <c r="V20">
-        <v>135</v>
+        <v>850</v>
       </c>
       <c r="W20">
-        <v>-167</v>
+        <v>-2</v>
       </c>
       <c r="X20">
-        <v>-148</v>
+        <v>-150</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-100</v>
+        <v>55</v>
       </c>
       <c r="AA20">
-        <v>212</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>40999</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>127</v>
+        <v>384</v>
       </c>
       <c r="D21">
-        <v>990</v>
+        <v>1172</v>
       </c>
       <c r="E21">
-        <v>503</v>
+        <v>103</v>
       </c>
       <c r="F21">
-        <v>653</v>
+        <v>810</v>
       </c>
       <c r="G21">
-        <v>6309</v>
+        <v>4566</v>
       </c>
       <c r="H21">
-        <v>14302</v>
+        <v>12482</v>
       </c>
       <c r="I21">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="J21">
-        <v>4078</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2391,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1610</v>
+        <v>1774</v>
       </c>
       <c r="O21">
-        <v>6313</v>
+        <v>1996</v>
       </c>
       <c r="P21">
-        <v>4078</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-51</v>
+        <v>-116</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>40999</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>7989</v>
+        <v>10486</v>
       </c>
       <c r="U21">
-        <v>4365</v>
+        <v>3049</v>
       </c>
       <c r="V21">
-        <v>-148</v>
+        <v>153</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>188</v>
+        <v>-246</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-29</v>
+        <v>-72</v>
       </c>
       <c r="AA21">
-        <v>127</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41090</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D22">
-        <v>1352</v>
+        <v>1075</v>
       </c>
       <c r="E22">
-        <v>679</v>
+        <v>227</v>
       </c>
       <c r="F22">
-        <v>814</v>
+        <v>698</v>
       </c>
       <c r="G22">
-        <v>3387</v>
+        <v>4332</v>
       </c>
       <c r="H22">
-        <v>15246</v>
+        <v>12269</v>
       </c>
       <c r="I22">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="J22">
-        <v>4074</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2474,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2611</v>
+        <v>1484</v>
       </c>
       <c r="O22">
-        <v>7178</v>
+        <v>1705</v>
       </c>
       <c r="P22">
-        <v>4074</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>-2542</v>
+        <v>-263</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41090</v>
       </c>
       <c r="S22">
-        <v>7190</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>8068</v>
+        <v>10564</v>
       </c>
       <c r="U22">
-        <v>1823</v>
+        <v>2786</v>
       </c>
       <c r="V22">
-        <v>1063</v>
+        <v>92</v>
       </c>
       <c r="W22">
-        <v>-3</v>
+        <v>-201</v>
       </c>
       <c r="X22">
-        <v>-30</v>
+        <v>-250</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="AA22">
-        <v>159</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>41182</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>363</v>
+        <v>226</v>
       </c>
       <c r="D23">
-        <v>1455</v>
+        <v>841</v>
       </c>
       <c r="E23">
-        <v>383</v>
+        <v>200</v>
       </c>
       <c r="F23">
-        <v>964</v>
+        <v>604</v>
       </c>
       <c r="G23">
-        <v>4008</v>
+        <v>4702</v>
       </c>
       <c r="H23">
-        <v>17302</v>
+        <v>12661</v>
       </c>
       <c r="I23">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="J23">
-        <v>5777</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2554,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-750</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2322</v>
+        <v>1555</v>
       </c>
       <c r="O23">
-        <v>8954</v>
+        <v>1778</v>
       </c>
       <c r="P23">
-        <v>5841</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1049</v>
+        <v>123</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>41182</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>8348</v>
+        <v>10883</v>
       </c>
       <c r="U23">
-        <v>2872</v>
+        <v>2909</v>
       </c>
       <c r="V23">
-        <v>337</v>
+        <v>124</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1779</v>
+        <v>6</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="AA23">
-        <v>363</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>41274</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="D24">
-        <v>1570</v>
+        <v>1768</v>
       </c>
       <c r="E24">
-        <v>462</v>
+        <v>707</v>
       </c>
       <c r="F24">
-        <v>972</v>
+        <v>1084</v>
       </c>
       <c r="G24">
-        <v>3420</v>
+        <v>6274</v>
       </c>
       <c r="H24">
-        <v>16607</v>
+        <v>14200</v>
       </c>
       <c r="I24">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="J24">
-        <v>4977</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2640,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2191</v>
+        <v>2652</v>
       </c>
       <c r="O24">
-        <v>8053</v>
+        <v>2883</v>
       </c>
       <c r="P24">
-        <v>5033</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-601</v>
+        <v>1050</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>41274</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>6590</v>
       </c>
       <c r="T24">
-        <v>8554</v>
+        <v>11317</v>
       </c>
       <c r="U24">
-        <v>2271</v>
+        <v>3959</v>
       </c>
       <c r="V24">
-        <v>503</v>
+        <v>976</v>
       </c>
       <c r="W24">
-        <v>-192</v>
+        <v>-3</v>
       </c>
       <c r="X24">
-        <v>-1033</v>
+        <v>-7</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA24">
-        <v>151</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>41364</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>199</v>
+        <v>456</v>
       </c>
       <c r="D25">
-        <v>1568</v>
+        <v>1324</v>
       </c>
       <c r="E25">
-        <v>446</v>
+        <v>237</v>
       </c>
       <c r="F25">
-        <v>1039</v>
+        <v>934</v>
       </c>
       <c r="G25">
-        <v>5334</v>
+        <v>5803</v>
       </c>
       <c r="H25">
-        <v>18380</v>
+        <v>13725</v>
       </c>
       <c r="I25">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="J25">
-        <v>4881</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2723,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3701</v>
+        <v>1899</v>
       </c>
       <c r="O25">
-        <v>9562</v>
+        <v>2190</v>
       </c>
       <c r="P25">
-        <v>6362</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1758</v>
+        <v>340</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>41364</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>8818</v>
+        <v>11535</v>
       </c>
       <c r="U25">
-        <v>4029</v>
+        <v>4299</v>
       </c>
       <c r="V25">
+        <v>325</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>23</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>87</v>
+      </c>
+      <c r="AA25">
         <v>456</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1337</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>41455</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="D26">
-        <v>2014</v>
+        <v>1050</v>
       </c>
       <c r="E26">
-        <v>732</v>
+        <v>117</v>
       </c>
       <c r="F26">
-        <v>1238</v>
+        <v>765</v>
       </c>
       <c r="G26">
-        <v>4830</v>
+        <v>5629</v>
       </c>
       <c r="H26">
-        <v>17452</v>
+        <v>13411</v>
       </c>
       <c r="I26">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="J26">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2806,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2656</v>
+        <v>1193</v>
       </c>
       <c r="O26">
-        <v>8333</v>
+        <v>1476</v>
       </c>
       <c r="P26">
-        <v>4887</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-784</v>
+        <v>42</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>41455</v>
       </c>
       <c r="S26">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>9119</v>
+        <v>11935</v>
       </c>
       <c r="U26">
-        <v>3245</v>
+        <v>4341</v>
       </c>
       <c r="V26">
-        <v>859</v>
+        <v>109</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>-212</v>
       </c>
       <c r="X26">
-        <v>-1583</v>
+        <v>-199</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AA26">
-        <v>253</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41547</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>426</v>
+        <v>57</v>
       </c>
       <c r="D27">
-        <v>1726</v>
+        <v>691</v>
       </c>
       <c r="E27">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="F27">
-        <v>1141</v>
+        <v>516</v>
       </c>
       <c r="G27">
-        <v>4356</v>
+        <v>8251</v>
       </c>
       <c r="H27">
-        <v>16921</v>
+        <v>16060</v>
       </c>
       <c r="I27">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="J27">
-        <v>4393</v>
+        <v>2211</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2886,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-3051</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2239</v>
+        <v>1433</v>
       </c>
       <c r="O27">
-        <v>7485</v>
+        <v>3921</v>
       </c>
       <c r="P27">
-        <v>4393</v>
+        <v>2211</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>103</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41547</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>9436</v>
+        <v>12139</v>
       </c>
       <c r="U27">
-        <v>3248</v>
+        <v>4444</v>
       </c>
       <c r="V27">
-        <v>411</v>
+        <v>-50</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-404</v>
+        <v>47</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AA27">
-        <v>426</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41639</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="D28">
-        <v>1631</v>
+        <v>1518</v>
       </c>
       <c r="E28">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="F28">
-        <v>1070</v>
+        <v>838</v>
       </c>
       <c r="G28">
-        <v>4352</v>
+        <v>6241</v>
       </c>
       <c r="H28">
-        <v>16808</v>
+        <v>14012</v>
       </c>
       <c r="I28">
-        <v>163</v>
+        <v>355</v>
       </c>
       <c r="J28">
-        <v>4387</v>
+        <v>4668</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +2972,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1765</v>
+        <v>2405</v>
       </c>
       <c r="O28">
-        <v>7093</v>
+        <v>7390</v>
       </c>
       <c r="P28">
-        <v>4387</v>
+        <v>4693</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>-34</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41639</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>6790</v>
       </c>
       <c r="T28">
-        <v>9715</v>
+        <v>6622</v>
       </c>
       <c r="U28">
-        <v>3278</v>
+        <v>4410</v>
       </c>
       <c r="V28">
-        <v>265</v>
+        <v>880</v>
       </c>
       <c r="W28">
-        <v>-226</v>
+        <v>-4</v>
       </c>
       <c r="X28">
-        <v>-248</v>
+        <v>-1094</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AA28">
-        <v>243</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>41729</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="D29">
-        <v>1618</v>
+        <v>1111</v>
       </c>
       <c r="E29">
-        <v>888</v>
+        <v>219</v>
       </c>
       <c r="F29">
-        <v>1066</v>
+        <v>769</v>
       </c>
       <c r="G29">
-        <v>5386</v>
+        <v>5694</v>
       </c>
       <c r="H29">
-        <v>17718</v>
+        <v>13528</v>
       </c>
       <c r="I29">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="J29">
-        <v>4388</v>
+        <v>4320</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3052,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="N29">
-        <v>2389</v>
+        <v>1893</v>
       </c>
       <c r="O29">
-        <v>7751</v>
+        <v>6604</v>
       </c>
       <c r="P29">
-        <v>4388</v>
+        <v>4320</v>
       </c>
       <c r="Q29">
-        <v>298</v>
+        <v>-131</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>41729</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>9967</v>
+        <v>6924</v>
       </c>
       <c r="U29">
-        <v>3576</v>
+        <v>4279</v>
       </c>
       <c r="V29">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>12</v>
+        <v>-252</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-80</v>
+        <v>21</v>
       </c>
       <c r="AA29">
-        <v>188</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>41820</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-585</v>
+        <v>204</v>
       </c>
       <c r="D30">
-        <v>2043</v>
+        <v>970</v>
       </c>
       <c r="E30">
-        <v>918</v>
+        <v>107</v>
       </c>
       <c r="F30">
-        <v>1240</v>
+        <v>670</v>
       </c>
       <c r="G30">
-        <v>6520</v>
+        <v>5474</v>
       </c>
       <c r="H30">
-        <v>18668</v>
+        <v>13360</v>
       </c>
       <c r="I30">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="J30">
-        <v>4390</v>
+        <v>4321</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3138,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3663</v>
+        <v>1443</v>
       </c>
       <c r="O30">
-        <v>9206</v>
+        <v>6189</v>
       </c>
       <c r="P30">
-        <v>4390</v>
+        <v>4321</v>
       </c>
       <c r="Q30">
-        <v>1134</v>
+        <v>-80</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>41820</v>
       </c>
       <c r="S30">
-        <v>9625</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>9462</v>
+        <v>7171</v>
       </c>
       <c r="U30">
-        <v>4713</v>
+        <v>4199</v>
       </c>
       <c r="V30">
-        <v>1158</v>
+        <v>106</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-143</v>
       </c>
       <c r="X30">
-        <v>16</v>
+        <v>-144</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-585</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>41912</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
+        <v>-23</v>
+      </c>
+      <c r="D31">
+        <v>753</v>
+      </c>
+      <c r="E31">
+        <v>689</v>
+      </c>
+      <c r="F31">
         <v>500</v>
       </c>
-      <c r="D31">
-        <v>1965</v>
-      </c>
-      <c r="E31">
-        <v>431</v>
-      </c>
-      <c r="F31">
-        <v>1303</v>
-      </c>
       <c r="G31">
-        <v>6410</v>
+        <v>5957</v>
       </c>
       <c r="H31">
-        <v>18397</v>
+        <v>13855</v>
       </c>
       <c r="I31">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="J31">
-        <v>4392</v>
+        <v>4322</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3221,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2927</v>
+        <v>2112</v>
       </c>
       <c r="O31">
-        <v>8578</v>
+        <v>6863</v>
       </c>
       <c r="P31">
-        <v>4392</v>
+        <v>4322</v>
       </c>
       <c r="Q31">
-        <v>504</v>
+        <v>-394</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>41912</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>9819</v>
+        <v>6992</v>
       </c>
       <c r="U31">
-        <v>5217</v>
+        <v>3805</v>
       </c>
       <c r="V31">
-        <v>529</v>
+        <v>-145</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>500</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42004</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="D32">
-        <v>1641</v>
+        <v>1575</v>
       </c>
       <c r="E32">
-        <v>418</v>
+        <v>659</v>
       </c>
       <c r="F32">
-        <v>1131</v>
+        <v>944</v>
       </c>
       <c r="G32">
-        <v>6134</v>
+        <v>6541</v>
       </c>
       <c r="H32">
-        <v>17958</v>
+        <v>14642</v>
       </c>
       <c r="I32">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="J32">
-        <v>4394</v>
+        <v>4324</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3304,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2060</v>
+        <v>2714</v>
       </c>
       <c r="O32">
-        <v>7612</v>
+        <v>7409</v>
       </c>
       <c r="P32">
-        <v>4394</v>
+        <v>4324</v>
       </c>
       <c r="Q32">
-        <v>-359</v>
+        <v>1043</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42004</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>6690</v>
       </c>
       <c r="T32">
-        <v>10346</v>
+        <v>7233</v>
       </c>
       <c r="U32">
-        <v>4857</v>
+        <v>4848</v>
       </c>
       <c r="V32">
-        <v>9</v>
+        <v>1195</v>
       </c>
       <c r="W32">
-        <v>-259</v>
+        <v>-4</v>
       </c>
       <c r="X32">
-        <v>-258</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>402</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42094</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>260</v>
+        <v>394</v>
       </c>
       <c r="D33">
-        <v>1512</v>
+        <v>1278</v>
       </c>
       <c r="E33">
-        <v>641</v>
+        <v>208</v>
       </c>
       <c r="F33">
-        <v>999</v>
+        <v>865</v>
       </c>
       <c r="G33">
-        <v>4972</v>
+        <v>5863</v>
       </c>
       <c r="H33">
-        <v>16713</v>
+        <v>13777</v>
       </c>
       <c r="I33">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="J33">
-        <v>2670</v>
+        <v>4075</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,40 +3384,40 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="N33">
-        <v>2382</v>
+        <v>1899</v>
       </c>
       <c r="O33">
-        <v>6054</v>
+        <v>6539</v>
       </c>
       <c r="P33">
-        <v>2670</v>
+        <v>4075</v>
       </c>
       <c r="Q33">
-        <v>-1549</v>
+        <v>-383</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42094</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>10659</v>
+        <v>7238</v>
       </c>
       <c r="U33">
-        <v>3308</v>
+        <v>4465</v>
       </c>
       <c r="V33">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-1770</v>
+        <v>-212</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3426,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>260</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>42185</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>686</v>
+        <v>212</v>
       </c>
       <c r="D34">
-        <v>2381</v>
+        <v>1044</v>
       </c>
       <c r="E34">
-        <v>1035</v>
+        <v>201</v>
       </c>
       <c r="F34">
-        <v>1549</v>
+        <v>747</v>
       </c>
       <c r="G34">
-        <v>6106</v>
+        <v>6051</v>
       </c>
       <c r="H34">
-        <v>17890</v>
+        <v>14015</v>
       </c>
       <c r="I34">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="J34">
-        <v>2671</v>
+        <v>4077</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3470,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2642</v>
+        <v>1545</v>
       </c>
       <c r="O34">
-        <v>6498</v>
+        <v>6214</v>
       </c>
       <c r="P34">
-        <v>2671</v>
+        <v>4077</v>
       </c>
       <c r="Q34">
-        <v>913</v>
+        <v>-49</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>42185</v>
       </c>
       <c r="S34">
-        <v>9760</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>11392</v>
+        <v>7801</v>
       </c>
       <c r="U34">
-        <v>4225</v>
+        <v>4416</v>
       </c>
       <c r="V34">
-        <v>999</v>
+        <v>135</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-167</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>-148</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-34</v>
+        <v>-100</v>
       </c>
       <c r="AA34">
-        <v>686</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42277</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>447</v>
+        <v>127</v>
       </c>
       <c r="D35">
-        <v>1825</v>
+        <v>990</v>
       </c>
       <c r="E35">
-        <v>594</v>
+        <v>503</v>
       </c>
       <c r="F35">
-        <v>1262</v>
+        <v>653</v>
       </c>
       <c r="G35">
-        <v>6037</v>
+        <v>6309</v>
       </c>
       <c r="H35">
-        <v>17948</v>
+        <v>14302</v>
       </c>
       <c r="I35">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="J35">
-        <v>2672</v>
+        <v>4078</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3553,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2295</v>
+        <v>1610</v>
       </c>
       <c r="O35">
-        <v>6352</v>
+        <v>6313</v>
       </c>
       <c r="P35">
-        <v>2955</v>
+        <v>4078</v>
       </c>
       <c r="Q35">
-        <v>471</v>
+        <v>-51</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42277</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>11596</v>
+        <v>7989</v>
       </c>
       <c r="U35">
-        <v>4696</v>
+        <v>4365</v>
       </c>
       <c r="V35">
-        <v>450</v>
+        <v>-148</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>24</v>
+        <v>188</v>
       </c>
       <c r="Y35">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>13</v>
+        <v>-29</v>
       </c>
       <c r="AA35">
-        <v>447</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>42369</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="D36">
-        <v>1396</v>
+        <v>1352</v>
       </c>
       <c r="E36">
-        <v>455</v>
+        <v>679</v>
       </c>
       <c r="F36">
-        <v>963</v>
+        <v>814</v>
       </c>
       <c r="G36">
-        <v>5663</v>
+        <v>3387</v>
       </c>
       <c r="H36">
-        <v>17495</v>
+        <v>15246</v>
       </c>
       <c r="I36">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="J36">
-        <v>2673</v>
+        <v>4074</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3636,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1639</v>
+        <v>2611</v>
       </c>
       <c r="O36">
-        <v>5518</v>
+        <v>7178</v>
       </c>
       <c r="P36">
-        <v>2962</v>
+        <v>4074</v>
       </c>
       <c r="Q36">
-        <v>-101</v>
+        <v>-2542</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>42369</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>7190</v>
       </c>
       <c r="T36">
-        <v>11977</v>
+        <v>8068</v>
       </c>
       <c r="U36">
-        <v>4592</v>
+        <v>1823</v>
       </c>
       <c r="V36">
-        <v>154</v>
+        <v>1063</v>
       </c>
       <c r="W36">
-        <v>-283</v>
+        <v>-3</v>
       </c>
       <c r="X36">
-        <v>-298</v>
+        <v>-30</v>
       </c>
       <c r="Y36">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="AA36">
-        <v>328</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42460</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="D37">
-        <v>1282</v>
+        <v>1455</v>
       </c>
       <c r="E37">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F37">
-        <v>840</v>
+        <v>964</v>
       </c>
       <c r="G37">
-        <v>6012</v>
+        <v>4008</v>
       </c>
       <c r="H37">
-        <v>17805</v>
+        <v>17302</v>
       </c>
       <c r="I37">
-        <v>274</v>
+        <v>150</v>
       </c>
       <c r="J37">
-        <v>2674</v>
+        <v>5777</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3716,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-750</v>
       </c>
       <c r="N37">
-        <v>1751</v>
+        <v>2322</v>
       </c>
       <c r="O37">
-        <v>5570</v>
+        <v>8954</v>
       </c>
       <c r="P37">
-        <v>2950</v>
+        <v>5841</v>
       </c>
       <c r="Q37">
-        <v>347</v>
+        <v>1049</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42460</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>12235</v>
+        <v>8348</v>
       </c>
       <c r="U37">
-        <v>4939</v>
+        <v>2872</v>
       </c>
       <c r="V37">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>23</v>
+        <v>1779</v>
       </c>
       <c r="Y37">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>204</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42551</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>525</v>
+        <v>151</v>
       </c>
       <c r="D38">
-        <v>1986</v>
+        <v>1570</v>
       </c>
       <c r="E38">
-        <v>848</v>
+        <v>462</v>
       </c>
       <c r="F38">
-        <v>1334</v>
+        <v>972</v>
       </c>
       <c r="G38">
-        <v>7292</v>
+        <v>3420</v>
       </c>
       <c r="H38">
-        <v>19845</v>
+        <v>16607</v>
       </c>
       <c r="I38">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="J38">
-        <v>2675</v>
+        <v>4977</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3802,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2915</v>
+        <v>2191</v>
       </c>
       <c r="O38">
-        <v>7040</v>
+        <v>8053</v>
       </c>
       <c r="P38">
-        <v>2948</v>
+        <v>5033</v>
       </c>
       <c r="Q38">
-        <v>852</v>
+        <v>-601</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42551</v>
       </c>
       <c r="S38">
-        <v>9080</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>12805</v>
+        <v>8554</v>
       </c>
       <c r="U38">
-        <v>5794</v>
+        <v>2271</v>
       </c>
       <c r="V38">
-        <v>918</v>
+        <v>503</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-192</v>
       </c>
       <c r="X38">
-        <v>14</v>
+        <v>-1033</v>
       </c>
       <c r="Y38">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>525</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42643</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>505</v>
+        <v>199</v>
       </c>
       <c r="D39">
-        <v>1788</v>
+        <v>1568</v>
       </c>
       <c r="E39">
-        <v>590</v>
+        <v>446</v>
       </c>
       <c r="F39">
-        <v>1283</v>
+        <v>1039</v>
       </c>
       <c r="G39">
-        <v>7119</v>
+        <v>5334</v>
       </c>
       <c r="H39">
-        <v>19604</v>
+        <v>18380</v>
       </c>
       <c r="I39">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="J39">
-        <v>2675</v>
+        <v>4881</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3885,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2560</v>
+        <v>3701</v>
       </c>
       <c r="O39">
-        <v>6583</v>
+        <v>9562</v>
       </c>
       <c r="P39">
-        <v>2675</v>
+        <v>6362</v>
       </c>
       <c r="Q39">
-        <v>112</v>
+        <v>1758</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42643</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>13021</v>
+        <v>8818</v>
       </c>
       <c r="U39">
-        <v>5906</v>
+        <v>4029</v>
       </c>
       <c r="V39">
-        <v>148</v>
+        <v>456</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>7</v>
+        <v>1337</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>505</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>42735</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>579</v>
+        <v>253</v>
       </c>
       <c r="D40">
-        <v>1932</v>
+        <v>2014</v>
       </c>
       <c r="E40">
-        <v>614</v>
+        <v>732</v>
       </c>
       <c r="F40">
-        <v>1463</v>
+        <v>1238</v>
       </c>
       <c r="G40">
-        <v>7719</v>
+        <v>4830</v>
       </c>
       <c r="H40">
-        <v>20220</v>
+        <v>17452</v>
       </c>
       <c r="I40">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="J40">
-        <v>2676</v>
+        <v>4887</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +3968,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2557</v>
+        <v>2656</v>
       </c>
       <c r="O40">
-        <v>6538</v>
+        <v>8333</v>
       </c>
       <c r="P40">
-        <v>2676</v>
+        <v>4887</v>
       </c>
       <c r="Q40">
-        <v>430</v>
+        <v>-784</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>42735</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="T40">
-        <v>13682</v>
+        <v>9119</v>
       </c>
       <c r="U40">
-        <v>6338</v>
+        <v>3245</v>
       </c>
       <c r="V40">
-        <v>768</v>
+        <v>859</v>
       </c>
       <c r="W40">
-        <v>-316</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-288</v>
+        <v>-1583</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>580</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>42825</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>604</v>
+        <v>426</v>
       </c>
       <c r="D41">
-        <v>1954</v>
+        <v>1726</v>
       </c>
       <c r="E41">
-        <v>619</v>
+        <v>344</v>
       </c>
       <c r="F41">
-        <v>1485</v>
+        <v>1141</v>
       </c>
       <c r="G41">
-        <v>9002</v>
+        <v>4356</v>
       </c>
       <c r="H41">
-        <v>21577</v>
+        <v>16921</v>
       </c>
       <c r="I41">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="J41">
-        <v>3604</v>
+        <v>4393</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4048,1293 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-3051</v>
       </c>
       <c r="N41">
-        <v>2187</v>
+        <v>2239</v>
       </c>
       <c r="O41">
-        <v>7195</v>
+        <v>7485</v>
       </c>
       <c r="P41">
-        <v>3604</v>
+        <v>4393</v>
       </c>
       <c r="Q41">
-        <v>1077</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>42825</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>14382</v>
+        <v>9436</v>
       </c>
       <c r="U41">
-        <v>7415</v>
+        <v>3248</v>
       </c>
       <c r="V41">
-        <v>196</v>
+        <v>411</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>934</v>
+        <v>-404</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>604</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>42916</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>243</v>
+      </c>
+      <c r="D42">
+        <v>1631</v>
+      </c>
+      <c r="E42">
+        <v>360</v>
+      </c>
+      <c r="F42">
+        <v>1070</v>
+      </c>
+      <c r="G42">
+        <v>4352</v>
+      </c>
+      <c r="H42">
+        <v>16808</v>
+      </c>
+      <c r="I42">
+        <v>163</v>
+      </c>
+      <c r="J42">
+        <v>4387</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1765</v>
+      </c>
+      <c r="O42">
+        <v>7093</v>
+      </c>
+      <c r="P42">
+        <v>4387</v>
+      </c>
+      <c r="Q42">
+        <v>27</v>
+      </c>
+      <c r="R42">
+        <v>42916</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>9715</v>
+      </c>
+      <c r="U42">
+        <v>3278</v>
+      </c>
+      <c r="V42">
+        <v>265</v>
+      </c>
+      <c r="W42">
+        <v>-226</v>
+      </c>
+      <c r="X42">
+        <v>-248</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>189</v>
+      </c>
+      <c r="D43">
+        <v>1618</v>
+      </c>
+      <c r="E43">
+        <v>888</v>
+      </c>
+      <c r="F43">
+        <v>1066</v>
+      </c>
+      <c r="G43">
+        <v>5386</v>
+      </c>
+      <c r="H43">
+        <v>17718</v>
+      </c>
+      <c r="I43">
+        <v>313</v>
+      </c>
+      <c r="J43">
+        <v>4388</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2389</v>
+      </c>
+      <c r="O43">
+        <v>7751</v>
+      </c>
+      <c r="P43">
+        <v>4388</v>
+      </c>
+      <c r="Q43">
+        <v>298</v>
+      </c>
+      <c r="R43">
+        <v>43008</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>9967</v>
+      </c>
+      <c r="U43">
+        <v>3576</v>
+      </c>
+      <c r="V43">
+        <v>379</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>12</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-80</v>
+      </c>
+      <c r="AA43">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-585</v>
+      </c>
+      <c r="D44">
+        <v>2043</v>
+      </c>
+      <c r="E44">
+        <v>918</v>
+      </c>
+      <c r="F44">
+        <v>1240</v>
+      </c>
+      <c r="G44">
+        <v>6520</v>
+      </c>
+      <c r="H44">
+        <v>18668</v>
+      </c>
+      <c r="I44">
+        <v>323</v>
+      </c>
+      <c r="J44">
+        <v>4390</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3663</v>
+      </c>
+      <c r="O44">
+        <v>9206</v>
+      </c>
+      <c r="P44">
+        <v>4390</v>
+      </c>
+      <c r="Q44">
+        <v>1134</v>
+      </c>
+      <c r="R44">
+        <v>43100</v>
+      </c>
+      <c r="S44">
+        <v>9625</v>
+      </c>
+      <c r="T44">
+        <v>9462</v>
+      </c>
+      <c r="U44">
+        <v>4713</v>
+      </c>
+      <c r="V44">
+        <v>1158</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>16</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>25</v>
+      </c>
+      <c r="AA44">
+        <v>-585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>500</v>
+      </c>
+      <c r="D45">
+        <v>1965</v>
+      </c>
+      <c r="E45">
+        <v>431</v>
+      </c>
+      <c r="F45">
+        <v>1303</v>
+      </c>
+      <c r="G45">
+        <v>6410</v>
+      </c>
+      <c r="H45">
+        <v>18397</v>
+      </c>
+      <c r="I45">
+        <v>172</v>
+      </c>
+      <c r="J45">
+        <v>4392</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2927</v>
+      </c>
+      <c r="O45">
+        <v>8578</v>
+      </c>
+      <c r="P45">
+        <v>4392</v>
+      </c>
+      <c r="Q45">
+        <v>504</v>
+      </c>
+      <c r="R45">
+        <v>43190</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>9819</v>
+      </c>
+      <c r="U45">
+        <v>5217</v>
+      </c>
+      <c r="V45">
+        <v>529</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-20</v>
+      </c>
+      <c r="AA45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>402</v>
+      </c>
+      <c r="D46">
+        <v>1641</v>
+      </c>
+      <c r="E46">
+        <v>418</v>
+      </c>
+      <c r="F46">
+        <v>1131</v>
+      </c>
+      <c r="G46">
+        <v>6134</v>
+      </c>
+      <c r="H46">
+        <v>17958</v>
+      </c>
+      <c r="I46">
+        <v>167</v>
+      </c>
+      <c r="J46">
+        <v>4394</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2060</v>
+      </c>
+      <c r="O46">
+        <v>7612</v>
+      </c>
+      <c r="P46">
+        <v>4394</v>
+      </c>
+      <c r="Q46">
+        <v>-359</v>
+      </c>
+      <c r="R46">
+        <v>43281</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>10346</v>
+      </c>
+      <c r="U46">
+        <v>4857</v>
+      </c>
+      <c r="V46">
+        <v>9</v>
+      </c>
+      <c r="W46">
+        <v>-259</v>
+      </c>
+      <c r="X46">
+        <v>-258</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-39</v>
+      </c>
+      <c r="AA46">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>260</v>
+      </c>
+      <c r="D47">
+        <v>1512</v>
+      </c>
+      <c r="E47">
+        <v>641</v>
+      </c>
+      <c r="F47">
+        <v>999</v>
+      </c>
+      <c r="G47">
+        <v>4972</v>
+      </c>
+      <c r="H47">
+        <v>16713</v>
+      </c>
+      <c r="I47">
+        <v>312</v>
+      </c>
+      <c r="J47">
+        <v>2670</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2382</v>
+      </c>
+      <c r="O47">
+        <v>6054</v>
+      </c>
+      <c r="P47">
+        <v>2670</v>
+      </c>
+      <c r="Q47">
+        <v>-1549</v>
+      </c>
+      <c r="R47">
+        <v>43373</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>10659</v>
+      </c>
+      <c r="U47">
+        <v>3308</v>
+      </c>
+      <c r="V47">
+        <v>253</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-1770</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>686</v>
+      </c>
+      <c r="D48">
+        <v>2381</v>
+      </c>
+      <c r="E48">
+        <v>1035</v>
+      </c>
+      <c r="F48">
+        <v>1549</v>
+      </c>
+      <c r="G48">
+        <v>6106</v>
+      </c>
+      <c r="H48">
+        <v>17890</v>
+      </c>
+      <c r="I48">
+        <v>253</v>
+      </c>
+      <c r="J48">
+        <v>2671</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2642</v>
+      </c>
+      <c r="O48">
+        <v>6498</v>
+      </c>
+      <c r="P48">
+        <v>2671</v>
+      </c>
+      <c r="Q48">
+        <v>913</v>
+      </c>
+      <c r="R48">
+        <v>43465</v>
+      </c>
+      <c r="S48">
+        <v>9760</v>
+      </c>
+      <c r="T48">
+        <v>11392</v>
+      </c>
+      <c r="U48">
+        <v>4225</v>
+      </c>
+      <c r="V48">
+        <v>999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-34</v>
+      </c>
+      <c r="AA48">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>447</v>
+      </c>
+      <c r="D49">
+        <v>1825</v>
+      </c>
+      <c r="E49">
+        <v>594</v>
+      </c>
+      <c r="F49">
+        <v>1262</v>
+      </c>
+      <c r="G49">
+        <v>6037</v>
+      </c>
+      <c r="H49">
+        <v>17948</v>
+      </c>
+      <c r="I49">
+        <v>166</v>
+      </c>
+      <c r="J49">
+        <v>2672</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2295</v>
+      </c>
+      <c r="O49">
+        <v>6352</v>
+      </c>
+      <c r="P49">
+        <v>2955</v>
+      </c>
+      <c r="Q49">
+        <v>471</v>
+      </c>
+      <c r="R49">
+        <v>43555</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>11596</v>
+      </c>
+      <c r="U49">
+        <v>4696</v>
+      </c>
+      <c r="V49">
+        <v>450</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>24</v>
+      </c>
+      <c r="Y49">
+        <v>221</v>
+      </c>
+      <c r="Z49">
+        <v>13</v>
+      </c>
+      <c r="AA49">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>327</v>
+      </c>
+      <c r="D50">
+        <v>1396</v>
+      </c>
+      <c r="E50">
+        <v>455</v>
+      </c>
+      <c r="F50">
+        <v>963</v>
+      </c>
+      <c r="G50">
+        <v>5663</v>
+      </c>
+      <c r="H50">
+        <v>17495</v>
+      </c>
+      <c r="I50">
+        <v>180</v>
+      </c>
+      <c r="J50">
+        <v>2673</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1639</v>
+      </c>
+      <c r="O50">
+        <v>5518</v>
+      </c>
+      <c r="P50">
+        <v>2962</v>
+      </c>
+      <c r="Q50">
+        <v>-101</v>
+      </c>
+      <c r="R50">
+        <v>43646</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>11977</v>
+      </c>
+      <c r="U50">
+        <v>4592</v>
+      </c>
+      <c r="V50">
+        <v>154</v>
+      </c>
+      <c r="W50">
+        <v>-283</v>
+      </c>
+      <c r="X50">
+        <v>-298</v>
+      </c>
+      <c r="Y50">
+        <v>229</v>
+      </c>
+      <c r="Z50">
+        <v>62</v>
+      </c>
+      <c r="AA50">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>204</v>
+      </c>
+      <c r="D51">
+        <v>1282</v>
+      </c>
+      <c r="E51">
+        <v>386</v>
+      </c>
+      <c r="F51">
+        <v>840</v>
+      </c>
+      <c r="G51">
+        <v>6012</v>
+      </c>
+      <c r="H51">
+        <v>17805</v>
+      </c>
+      <c r="I51">
+        <v>274</v>
+      </c>
+      <c r="J51">
+        <v>2674</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1751</v>
+      </c>
+      <c r="O51">
+        <v>5570</v>
+      </c>
+      <c r="P51">
+        <v>2950</v>
+      </c>
+      <c r="Q51">
+        <v>347</v>
+      </c>
+      <c r="R51">
+        <v>43738</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>12235</v>
+      </c>
+      <c r="U51">
+        <v>4939</v>
+      </c>
+      <c r="V51">
+        <v>309</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>23</v>
+      </c>
+      <c r="Y51">
+        <v>215</v>
+      </c>
+      <c r="Z51">
+        <v>78</v>
+      </c>
+      <c r="AA51">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>525</v>
+      </c>
+      <c r="D52">
+        <v>1986</v>
+      </c>
+      <c r="E52">
+        <v>848</v>
+      </c>
+      <c r="F52">
+        <v>1334</v>
+      </c>
+      <c r="G52">
+        <v>7292</v>
+      </c>
+      <c r="H52">
+        <v>19845</v>
+      </c>
+      <c r="I52">
+        <v>292</v>
+      </c>
+      <c r="J52">
+        <v>2675</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2915</v>
+      </c>
+      <c r="O52">
+        <v>7040</v>
+      </c>
+      <c r="P52">
+        <v>2948</v>
+      </c>
+      <c r="Q52">
+        <v>852</v>
+      </c>
+      <c r="R52">
+        <v>43830</v>
+      </c>
+      <c r="S52">
+        <v>9080</v>
+      </c>
+      <c r="T52">
+        <v>12805</v>
+      </c>
+      <c r="U52">
+        <v>5794</v>
+      </c>
+      <c r="V52">
+        <v>918</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>14</v>
+      </c>
+      <c r="Y52">
+        <v>210</v>
+      </c>
+      <c r="Z52">
+        <v>-65</v>
+      </c>
+      <c r="AA52">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>505</v>
+      </c>
+      <c r="D53">
+        <v>1788</v>
+      </c>
+      <c r="E53">
+        <v>590</v>
+      </c>
+      <c r="F53">
+        <v>1283</v>
+      </c>
+      <c r="G53">
+        <v>7119</v>
+      </c>
+      <c r="H53">
+        <v>19604</v>
+      </c>
+      <c r="I53">
+        <v>158</v>
+      </c>
+      <c r="J53">
+        <v>2675</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2560</v>
+      </c>
+      <c r="O53">
+        <v>6583</v>
+      </c>
+      <c r="P53">
+        <v>2675</v>
+      </c>
+      <c r="Q53">
+        <v>112</v>
+      </c>
+      <c r="R53">
+        <v>43921</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>13021</v>
+      </c>
+      <c r="U53">
+        <v>5906</v>
+      </c>
+      <c r="V53">
+        <v>148</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>7</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-9</v>
+      </c>
+      <c r="AA53">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>579</v>
+      </c>
+      <c r="D54">
+        <v>1932</v>
+      </c>
+      <c r="E54">
+        <v>614</v>
+      </c>
+      <c r="F54">
+        <v>1463</v>
+      </c>
+      <c r="G54">
+        <v>7719</v>
+      </c>
+      <c r="H54">
+        <v>20220</v>
+      </c>
+      <c r="I54">
+        <v>177</v>
+      </c>
+      <c r="J54">
+        <v>2676</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2557</v>
+      </c>
+      <c r="O54">
+        <v>6538</v>
+      </c>
+      <c r="P54">
+        <v>2676</v>
+      </c>
+      <c r="Q54">
+        <v>430</v>
+      </c>
+      <c r="R54">
+        <v>44012</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>13682</v>
+      </c>
+      <c r="U54">
+        <v>6338</v>
+      </c>
+      <c r="V54">
+        <v>768</v>
+      </c>
+      <c r="W54">
+        <v>-316</v>
+      </c>
+      <c r="X54">
+        <v>-288</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-47</v>
+      </c>
+      <c r="AA54">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>604</v>
+      </c>
+      <c r="D55">
+        <v>1954</v>
+      </c>
+      <c r="E55">
+        <v>619</v>
+      </c>
+      <c r="F55">
+        <v>1485</v>
+      </c>
+      <c r="G55">
+        <v>9002</v>
+      </c>
+      <c r="H55">
+        <v>21577</v>
+      </c>
+      <c r="I55">
+        <v>224</v>
+      </c>
+      <c r="J55">
+        <v>3604</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2187</v>
+      </c>
+      <c r="O55">
+        <v>7195</v>
+      </c>
+      <c r="P55">
+        <v>3604</v>
+      </c>
+      <c r="Q55">
+        <v>1077</v>
+      </c>
+      <c r="R55">
+        <v>44104</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>14382</v>
+      </c>
+      <c r="U55">
+        <v>7415</v>
+      </c>
+      <c r="V55">
+        <v>196</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>934</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-66</v>
+      </c>
+      <c r="AA55">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
         <v>509</v>
       </c>
-      <c r="D42">
+      <c r="D56">
         <v>2412</v>
       </c>
-      <c r="E42">
+      <c r="E56">
         <v>1052</v>
       </c>
-      <c r="F42">
+      <c r="F56">
         <v>1595</v>
       </c>
-      <c r="G42">
+      <c r="G56">
         <v>10565</v>
       </c>
-      <c r="H42">
+      <c r="H56">
         <v>23109</v>
       </c>
-      <c r="I42">
+      <c r="I56">
         <v>295</v>
       </c>
-      <c r="J42">
+      <c r="J56">
         <v>3605</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
         <v>3100</v>
       </c>
-      <c r="O42">
+      <c r="O56">
         <v>8072</v>
       </c>
-      <c r="P42">
+      <c r="P56">
         <v>3895</v>
       </c>
-      <c r="Q42">
+      <c r="Q56">
         <v>1235</v>
       </c>
-      <c r="R42">
+      <c r="R56">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S56">
         <v>9500</v>
       </c>
-      <c r="T42">
+      <c r="T56">
         <v>15037</v>
       </c>
-      <c r="U42">
+      <c r="U56">
         <v>8647</v>
       </c>
-      <c r="V42">
+      <c r="V56">
         <v>1140</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
         <v>58</v>
       </c>
-      <c r="Y42">
+      <c r="Y56">
         <v>224</v>
       </c>
-      <c r="Z42">
+      <c r="Z56">
         <v>22</v>
       </c>
-      <c r="AA42">
+      <c r="AA56">
         <v>509</v>
       </c>
     </row>
